--- a/Test/MultiPSO/Explore100Exploit200/ALLCONError_100.xlsx
+++ b/Test/MultiPSO/Explore100Exploit200/ALLCONError_100.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.009728190578253059</v>
+        <v>0.006397970072908424</v>
       </c>
       <c r="B1" t="n">
-        <v>0.002345688835199518</v>
+        <v>0.001766562886356524</v>
       </c>
       <c r="C1" t="n">
-        <v>0.003909462387118107</v>
+        <v>0.001892241104829853</v>
       </c>
       <c r="D1" t="n">
-        <v>0.003004751731463205</v>
+        <v>0.001768005931657864</v>
       </c>
       <c r="E1" t="n">
-        <v>0.00427246624899906</v>
+        <v>0.005957739670310225</v>
       </c>
       <c r="F1" t="n">
-        <v>0.005368982423669293</v>
+        <v>0.002987052524697796</v>
       </c>
       <c r="G1" t="n">
-        <v>0.008181101519289758</v>
+        <v>0.003473071196484845</v>
       </c>
       <c r="H1" t="n">
-        <v>0.003296026711141595</v>
+        <v>0.002681040760864388</v>
       </c>
       <c r="I1" t="n">
-        <v>0.008335180890274916</v>
+        <v>0.007014951117898544</v>
       </c>
       <c r="J1" t="n">
-        <v>0.01043633053001152</v>
+        <v>0.008983397514542101</v>
       </c>
     </row>
   </sheetData>
